--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4294828.515388786</v>
+        <v>4287811.500497075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>132.9934764794492</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>152.8604975445546</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>58.40336142830051</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>28.26375894607715</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.37809923434654</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.9486844368455</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>200.839746674567</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>96.9767482325481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>130.3416446087992</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>125.2036806833086</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>259.1820343400291</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>136.9575509524587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>128.3708685936577</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>26.99319854866535</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>92.03515530101831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.0094263875339</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.9309043193591</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.7675922068287</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>73.66308659887136</v>
       </c>
       <c r="H40" t="n">
-        <v>114.8782988391488</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>211.5826831107711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.76031366037154</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.115530175776</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C2" t="n">
-        <v>1452.115530175776</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D2" t="n">
-        <v>1093.849831569025</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>215.2930255438656</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>208.3475247946621</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2337.536952213968</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1947.397620238156</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>675.0978234092011</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>216.719389522771</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>216.719389522771</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>563.9091713093267</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>563.9091713093267</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5074,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464246</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293934</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924328</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X13" t="n">
-        <v>545.8631874464246</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y13" t="n">
-        <v>545.8631874464246</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1172.52789614688</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>883.1107261099196</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>655.1211752119023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,67 +5737,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3190.928350499668</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>3959.29649689213</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556163</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.69918977486</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>902.2557172223356</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>647.5712290164488</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>647.5712290164488</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4722.513612456254</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4433.384973669812</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4178.700485463925</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3889.283315426965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3777.44735500919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3777.44735500919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4731.187028980295</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4731.187028980295</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4476.502540774408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4187.085370737447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3959.09581983943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3959.09581983943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3946.684906976818</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V31" t="n">
-        <v>4456.894656157308</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W31" t="n">
-        <v>4167.477486120348</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X31" t="n">
-        <v>4167.477486120348</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y31" t="n">
-        <v>3946.684906976818</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,64 +6925,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.2714843595163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3353014316094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>377.2186620192737</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>229.3055684368805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>229.3055684368805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.712528333286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>877.919949189756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4321.869908593653</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C40" t="n">
-        <v>4152.933725665746</v>
+        <v>616.5439301336032</v>
       </c>
       <c r="D40" t="n">
-        <v>4002.817086253411</v>
+        <v>466.4272907212675</v>
       </c>
       <c r="E40" t="n">
-        <v>3854.903992671017</v>
+        <v>318.5141971388744</v>
       </c>
       <c r="F40" t="n">
-        <v>3854.903992671017</v>
+        <v>171.624249640964</v>
       </c>
       <c r="G40" t="n">
-        <v>3686.728670990838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W40" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X40" t="n">
-        <v>4321.869908593653</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y40" t="n">
-        <v>4321.869908593653</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.21084526296</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1292.123678573898</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.123678573898</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1002.995039787456</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.995039787456</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>713.5778697504956</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907255</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>297.2466435761016</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>39.88923345256745</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>412.600292959643</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.732907156489</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>36.90517648982862</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>126.9339626405194</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>27.05531805854821</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>84.59001010593053</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>93.1766924647315</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>194.5543625097239</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>160.1024880228097</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>106.6166567390301</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.72597625654888</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>92.83048186450623</v>
       </c>
       <c r="H40" t="n">
-        <v>34.03552952838729</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>14.12697227826609</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>103.1604963232317</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607930.4035028582</v>
+        <v>607930.4035028581</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754174</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.055200195</v>
+        <v>-17418.05520019523</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.8240143495</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629339</v>
+        <v>141761.5582032124</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801086</v>
       </c>
       <c r="G6" t="n">
-        <v>667896.1859398305</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="H6" t="n">
-        <v>667896.1859398306</v>
+        <v>666921.5946801088</v>
       </c>
       <c r="I6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="J6" t="n">
-        <v>491472.9667472376</v>
+        <v>490498.3754875161</v>
       </c>
       <c r="K6" t="n">
-        <v>667896.1859398304</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="L6" t="n">
-        <v>667896.1859398305</v>
+        <v>666921.5946801089</v>
       </c>
       <c r="M6" t="n">
-        <v>533095.1707059933</v>
+        <v>532120.5794462715</v>
       </c>
       <c r="N6" t="n">
-        <v>667896.1859398301</v>
+        <v>666921.5946801085</v>
       </c>
       <c r="O6" t="n">
-        <v>667896.1859398306</v>
+        <v>666921.5946801087</v>
       </c>
       <c r="P6" t="n">
-        <v>667896.1859398301</v>
+        <v>666921.5946801088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>248.9368935928126</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>260.9236724762403</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27587,10 +27587,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.25950038248513</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>296.2796801923824</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>341.4673417323919</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>156.4538809475908</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>109.7609709521917</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>126.9125117955679</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>49.56792418188243</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>609.7603912467498</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>546.504348532126</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>576.1943477916178</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221117</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>576.1943477916178</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>350.3136105030338</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>567.6062243483298</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287811.500497075</v>
+        <v>4292750.763346107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>367.8804998255874</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>152.8604975445546</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>58.40336142830051</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>137.5004243085495</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.37809923434654</v>
+        <v>52.50084918926082</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>15.1171458163242</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095413</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>26.99319854866535</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>3.0094263875339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.4561158141381</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>73.66308659887136</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7611531036558</v>
       </c>
     </row>
     <row r="41">
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.309493689272</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>959.3469767488602</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>601.0812781421098</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>215.2930255438656</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>208.3475247946621</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="3">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.506281012309</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.506281012309</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4795,7 +4795,7 @@
         <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1484.03077229167</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.613602254709</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>966.6240513566914</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6220,7 +6220,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1360.575309999864</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1071.446671213422</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>816.7621830075352</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705745</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.1765965867977</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>726.8250614170374</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,7 +6922,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,13 +7025,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>785.4801130615101</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C40" t="n">
-        <v>616.5439301336032</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D40" t="n">
-        <v>466.4272907212675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>318.5141971388744</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>171.624249640964</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y40" t="n">
-        <v>967.1285778917498</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>277.6717966208068</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>194.5543625097239</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.2373947110939</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25134,7 +25134,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>2.128537537956674</v>
       </c>
     </row>
     <row r="35">
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>92.83048186450623</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>43.82350024843896</v>
       </c>
     </row>
     <row r="41">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607930.4035028581</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754174</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019523</v>
+        <v>-17418.05520019526</v>
       </c>
       <c r="C6" t="n">
         <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>141761.5582032124</v>
+        <v>142638.690336962</v>
       </c>
       <c r="F6" t="n">
-        <v>666921.5946801086</v>
+        <v>667798.7268138585</v>
       </c>
       <c r="G6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="H6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="I6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="J6" t="n">
-        <v>490498.3754875161</v>
+        <v>491375.5076212652</v>
       </c>
       <c r="K6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="L6" t="n">
-        <v>666921.5946801089</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="M6" t="n">
-        <v>532120.5794462715</v>
+        <v>532997.7115800212</v>
       </c>
       <c r="N6" t="n">
-        <v>666921.5946801085</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="O6" t="n">
-        <v>666921.5946801087</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="P6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138581</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26761,19 +26761,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.85334183789314</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>260.9236724762403</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>296.2796801923824</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>113.7237431997398</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.4538809475908</v>
+        <v>127.3311309926765</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>398.6670242044708</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380968</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37393,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>588.096173671273</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38116,10 +38116,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
